--- a/36_Mr_Stone/Mr_Stone_Data.xlsx
+++ b/36_Mr_Stone/Mr_Stone_Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,19 +11,184 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Mr. Stone</t>
+  </si>
+  <si>
+    <t>N. Subject</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Blood Pressure</t>
+  </si>
+  <si>
+    <t>127/85</t>
+  </si>
+  <si>
+    <t>120 / 81</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>Beats / Min</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>degree F</t>
+  </si>
+  <si>
+    <t>Respiration Rate</t>
+  </si>
+  <si>
+    <t>Breaths / Min</t>
+  </si>
+  <si>
+    <t>[Na+]</t>
+  </si>
+  <si>
+    <t>mEq/L</t>
+  </si>
+  <si>
+    <t>[K+]</t>
+  </si>
+  <si>
+    <t>[Cl-]</t>
+  </si>
+  <si>
+    <t>[BUN]</t>
+  </si>
+  <si>
+    <t>mG/dL</t>
+  </si>
+  <si>
+    <t>[Protein]</t>
+  </si>
+  <si>
+    <t>G/dL</t>
+  </si>
+  <si>
+    <t>Osmolarity</t>
+  </si>
+  <si>
+    <t>mOsm/L</t>
+  </si>
+  <si>
+    <t>Hematocrit</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>pCO2</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH Units</t>
+  </si>
+  <si>
+    <t>[H+]</t>
+  </si>
+  <si>
+    <t>pMol/L</t>
+  </si>
+  <si>
+    <t>[HCO3-]</t>
+  </si>
+  <si>
+    <t>Anion Gap</t>
+  </si>
+  <si>
+    <t>H2O Rate</t>
+  </si>
+  <si>
+    <t>mL/Min</t>
+  </si>
+  <si>
+    <t>Na+ Rate</t>
+  </si>
+  <si>
+    <t>mEq/Min</t>
+  </si>
+  <si>
+    <t>K+ Rate</t>
+  </si>
+  <si>
+    <t>Cl- Rate</t>
+  </si>
+  <si>
+    <t>HCO3-Rate</t>
+  </si>
+  <si>
+    <t>NH4+ Rate</t>
+  </si>
+  <si>
+    <t>Total Body H2O</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>ECFV</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>Interstitium</t>
+  </si>
+  <si>
+    <t>Cell H2O</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -42,12 +207,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +580,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:D58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4">
+        <v>73</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>98.5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>98.8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>146</v>
+      </c>
+      <c r="C8" s="4">
+        <v>145</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>122</v>
+      </c>
+      <c r="C10" s="4">
+        <v>108</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>305</v>
+      </c>
+      <c r="C13" s="4">
+        <v>292</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4">
+        <v>146</v>
+      </c>
+      <c r="C23" s="4">
+        <v>145</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4">
+        <v>122</v>
+      </c>
+      <c r="C24" s="4">
+        <v>108</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="28" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4">
+        <v>37</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.114</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="40" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43.2</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="C45" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="47" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="4">
+        <v>146</v>
+      </c>
+      <c r="C48" s="4">
+        <v>157</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C49" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="4">
+        <v>122</v>
+      </c>
+      <c r="C50" s="4">
+        <v>104</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="4">
+        <v>21</v>
+      </c>
+      <c r="C51" s="4">
+        <v>20</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="C52" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="4">
+        <v>305</v>
+      </c>
+      <c r="C53" s="4">
+        <v>322</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="4">
+        <v>45</v>
+      </c>
+      <c r="C54" s="4">
+        <v>41</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="4">
+        <v>36</v>
+      </c>
+      <c r="C55" s="4">
+        <v>45</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="C56" s="4">
+        <v>7.51</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="4">
+        <v>51</v>
+      </c>
+      <c r="C57" s="4">
+        <v>31</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="4">
+        <v>18</v>
+      </c>
+      <c r="C58" s="4">
+        <v>40</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/36_Mr_Stone/Mr_Stone_Data.xlsx
+++ b/36_Mr_Stone/Mr_Stone_Data.xlsx
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:D58"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -593,7 +593,7 @@
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="48" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45.75" thickBot="1">
+    <row r="2" spans="1:4" ht="30.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -649,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45.75" thickBot="1">
+    <row r="5" spans="1:4" ht="30.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -938,7 +938,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>7.3</v>
+        <v>7.23</v>
       </c>
       <c r="C29" s="4">
         <v>7.45</v>
@@ -952,7 +952,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C30" s="4">
         <v>37</v>

--- a/36_Mr_Stone/Mr_Stone_Data.xlsx
+++ b/36_Mr_Stone/Mr_Stone_Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
   <si>
     <t>Variable</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Now</t>
+  </si>
+  <si>
+    <t>Didn't try to mess around with IV ion concentrations and delivery options. We'll leave that up to the students.</t>
   </si>
 </sst>
 </file>
@@ -191,12 +194,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -263,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -286,6 +295,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -796,7 +809,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4">
         <v>37</v>
@@ -810,7 +823,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4">
-        <v>7.3</v>
+        <v>7.23</v>
       </c>
       <c r="C18" s="4">
         <v>7.45</v>
@@ -824,7 +837,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4">
         <v>35</v>
@@ -838,7 +851,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4">
         <v>26</v>
@@ -895,7 +908,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4">
         <v>26</v>
@@ -909,7 +922,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4">
         <v>11</v>
@@ -1167,9 +1180,7 @@
       <c r="B48" s="4">
         <v>146</v>
       </c>
-      <c r="C48" s="4">
-        <v>157</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="5" t="s">
         <v>15</v>
       </c>
@@ -1181,9 +1192,7 @@
       <c r="B49" s="4">
         <v>4.5</v>
       </c>
-      <c r="C49" s="4">
-        <v>3.9</v>
-      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="5" t="s">
         <v>15</v>
       </c>
@@ -1195,9 +1204,7 @@
       <c r="B50" s="4">
         <v>122</v>
       </c>
-      <c r="C50" s="4">
-        <v>104</v>
-      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="5" t="s">
         <v>15</v>
       </c>
@@ -1209,9 +1216,7 @@
       <c r="B51" s="4">
         <v>21</v>
       </c>
-      <c r="C51" s="4">
-        <v>20</v>
-      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="5" t="s">
         <v>19</v>
       </c>
@@ -1223,9 +1228,7 @@
       <c r="B52" s="4">
         <v>7.3</v>
       </c>
-      <c r="C52" s="4">
-        <v>6.2</v>
-      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="5" t="s">
         <v>21</v>
       </c>
@@ -1237,9 +1240,7 @@
       <c r="B53" s="4">
         <v>305</v>
       </c>
-      <c r="C53" s="4">
-        <v>322</v>
-      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="5" t="s">
         <v>23</v>
       </c>
@@ -1251,9 +1252,7 @@
       <c r="B54" s="4">
         <v>45</v>
       </c>
-      <c r="C54" s="4">
-        <v>41</v>
-      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="5" t="s">
         <v>25</v>
       </c>
@@ -1265,9 +1264,7 @@
       <c r="B55" s="4">
         <v>36</v>
       </c>
-      <c r="C55" s="4">
-        <v>45</v>
-      </c>
+      <c r="C55" s="4"/>
       <c r="D55" s="5" t="s">
         <v>7</v>
       </c>
@@ -1279,9 +1276,7 @@
       <c r="B56" s="4">
         <v>7.3</v>
       </c>
-      <c r="C56" s="4">
-        <v>7.51</v>
-      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="5" t="s">
         <v>28</v>
       </c>
@@ -1293,9 +1288,7 @@
       <c r="B57" s="4">
         <v>51</v>
       </c>
-      <c r="C57" s="4">
-        <v>31</v>
-      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="5" t="s">
         <v>30</v>
       </c>
@@ -1307,16 +1300,25 @@
       <c r="B58" s="4">
         <v>18</v>
       </c>
-      <c r="C58" s="4">
-        <v>40</v>
-      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="5" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="60" spans="1:4" ht="165">
+      <c r="A60" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="9"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
